--- a/year_jd/BeeNumber_vs_sig.xlsx
+++ b/year_jd/BeeNumber_vs_sig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/354df2322d141dca/BumblebeeEmergence/figures/year_jd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{42233921-1731-42C4-987C-A585BFBEEDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40CB4319-FC02-4855-A10B-C23E458C9270}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{42233921-1731-42C4-987C-A585BFBEEDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C85F056-F0AF-4867-B880-BBEAAD105F05}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7AB3130D-FD60-4E0E-8BA1-1A0500DA76E1}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" xr2:uid="{7AB3130D-FD60-4E0E-8BA1-1A0500DA76E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Species</t>
   </si>
@@ -74,10 +74,16 @@
     <t>terr</t>
   </si>
   <si>
-    <t>psbo</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>hypn</t>
+  </si>
+  <si>
+    <t>jon</t>
+  </si>
+  <si>
+    <t>ps</t>
   </si>
 </sst>
 </file>
@@ -219,22 +225,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,16 +578,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00264AE9-411C-4206-86DE-835610C4CF0A}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B2" sqref="B2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -579,138 +604,172 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>0.22842999999999999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>0.15295</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>1.8950000000000002E-2</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <v>1.49E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>0.13450000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>8.0570000000000003E-2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>4.7260000000000003E-2</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2.213E-2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2.3560000000000001E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4.8869999999999997E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4.4170000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.74665999999999999</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B6" s="7">
         <v>0.11117</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="7">
         <v>0.59355000000000002</v>
       </c>
-      <c r="D4">
+      <c r="D6" s="7">
         <v>0.65642999999999996</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E6" s="9">
         <v>4.5416999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B7" s="8">
         <v>3.3029999999999997E-2</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="C7" s="10">
+        <v>0.18281</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="7">
         <v>0.93311999999999995</v>
       </c>
-      <c r="C6">
+      <c r="C8" s="7">
         <v>0.31008000000000002</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="7">
         <v>7.177E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E8" s="12">
         <v>6.7320000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B9" s="8">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C9" s="8">
         <v>2.9E-4</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D9" s="8">
         <v>3.2000000000000003E-4</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E9" s="9">
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.25663000000000002</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.38562999999999997</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0.21668000000000001</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="E10" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B11" s="13">
         <v>0.33127000000000001</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C11" s="14">
         <v>2.7230000000000001E-2</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D11" s="14">
         <v>3.4959999999999998E-2</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E11" s="15">
         <v>4.231E-2</v>
       </c>
     </row>
